--- a/flix.xlsx
+++ b/flix.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\flixmedia-capchacode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1EF9D7-D61D-42D5-B4B8-226C8EFBCBF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD63D71-736B-4E38-B493-1503C1A8E11E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="114">
   <si>
     <t>Brand</t>
   </si>
@@ -62,152 +62,314 @@
     <t>YES</t>
   </si>
   <si>
-    <t>SHARP</t>
-  </si>
-  <si>
     <t>CDiscount - FR</t>
   </si>
   <si>
-    <t>Lave vaisselle 60 cm SHARP QWNA1FF45DI 16 couverts 59.8cm 45db Inox Lave-vaisselle</t>
-  </si>
-  <si>
-    <t>SHA1700610288719</t>
-  </si>
-  <si>
-    <t>https://www.cdiscount.com/electromenager/lave-vaisselle/lave-vaisselle-60-cm-sharp-qwna1ff45di-16-couverts/f-11025-sha1700610288719.html</t>
-  </si>
-  <si>
     <t>fr</t>
   </si>
   <si>
     <t>Not possible to match</t>
   </si>
   <si>
-    <t>Lave vaisselle 60 cm SHARP QWNA1FF45DW 16 couverts 59.8cm 45db Blanc Lave-vaisselle</t>
-  </si>
-  <si>
-    <t>SHA1700610398437</t>
-  </si>
-  <si>
-    <t>https://www.cdiscount.com/electromenager/lave-vaisselle/lave-vaisselle-60-cm-sharp-qwna1ff45dw-16-couverts/f-11025-sha1700610398437.html</t>
-  </si>
-  <si>
-    <t>Lave vaisselle tout intégrable 60 cm - SHARP - QW-NI14I47EX - 13 couverts - 5 Programmes - Départ différé Lave-vaisselle</t>
-  </si>
-  <si>
-    <t>SHA4974019180878</t>
-  </si>
-  <si>
-    <t>https://www.cdiscount.com/electromenager/lave-vaisselle/lave-vaisselle-tout-integrable-60-cm-qw-ni14i47ex/f-11025-sha4974019180878.html</t>
-  </si>
-  <si>
-    <t>Lave-linge encastrable - SHARP - ESNIB714BWNA - 7 kg - 15 programmes - 1400 tr/min Lave Linge</t>
-  </si>
-  <si>
-    <t>SHA1720913754480</t>
-  </si>
-  <si>
-    <t>https://www.cdiscount.com/electromenager/lavage-sechage/sharp-lave-linge-encastrable-esnib714bwna-7-kgs/f-1100104-sha1720913754480.html</t>
-  </si>
-  <si>
-    <t>Lave-Linge Frontal SHARP ESHFH814AWC Lave Linge</t>
-  </si>
-  <si>
-    <t>SHA4974019164687</t>
-  </si>
-  <si>
-    <t>https://www.cdiscount.com/electromenager/lavage-sechage/lave-linge-frontal-sharp-eshfh814awc/f-1100104-sha4974019164687.html</t>
-  </si>
-  <si>
-    <t>Micro-ondes combiné Sharp YC-PC284AE-S Micro-ondes</t>
-  </si>
-  <si>
-    <t>YC-PC284AE-S</t>
-  </si>
-  <si>
-    <t>https://www.cdiscount.com/electromenager/petits-appareils-de-cuisson/sharp-yc-pc284ae-s-micro-ondes-argent-900-w/f-110200108-sha4974019212609.html</t>
-  </si>
-  <si>
-    <t>SAMSUNG</t>
-  </si>
-  <si>
-    <t>Abenson - PH</t>
-  </si>
-  <si>
-    <t>Abenson Online Gadget and Appliance Superstore</t>
-  </si>
-  <si>
-    <t>SM-S938BZBCPHL</t>
-  </si>
-  <si>
-    <t>https://www.abenson.com/samsung-galaxy-s24-plus-12gb-256gb-amber-yellow.html</t>
-  </si>
-  <si>
-    <t>e5</t>
-  </si>
-  <si>
-    <t>mpn_mismatch</t>
-  </si>
-  <si>
-    <t>https://www.abenson.com/samsung-galaxy-s24-plus-12gb-512gb-amber-yellow.html</t>
-  </si>
-  <si>
-    <t>https://www.abenson.com/samsung-galaxy-s24-ultra-12gb-1tb-titanium-blue.html</t>
-  </si>
-  <si>
-    <t>https://www.abenson.com/samsung-galaxy-s24-ultra-12gb-256gb-titanium-black.html</t>
-  </si>
-  <si>
-    <t>ASUS</t>
+    <t>en</t>
+  </si>
+  <si>
+    <t>CANON</t>
+  </si>
+  <si>
+    <t>Carrefour - ES</t>
+  </si>
+  <si>
+    <t>Impresora Canon Pixma TS7450i, Impresión, Escanear, Copia, Wifi, Color, 6,8 ipm | Ofertas Carrefour Online</t>
+  </si>
+  <si>
+    <t>https://www.carrefour.es/impresora-canon-pixma-ts7450i-impresion-escanear-copia-wifi-color-68-ipm/VC4A-27361597/p</t>
+  </si>
+  <si>
+    <t>es</t>
+  </si>
+  <si>
+    <t>CANON Cartouche d'encre CLI-571M XL grande capacité Magenta (CLI571XL) Cartouches d'encre</t>
+  </si>
+  <si>
+    <t>0333C001</t>
+  </si>
+  <si>
+    <t>https://www.cdiscount.com/informatique/cartouche-encre-toner/canon-cartouche-d-encre-cli-571m-xl-grande-capacit/f-1070601-0333c001aa.html</t>
+  </si>
+  <si>
+    <t>Imprimante jet d'encre multifonction - CANON - PIXMA MG2551S - Couleur - Noir Imprimantes</t>
+  </si>
+  <si>
+    <t>0727C066</t>
+  </si>
+  <si>
+    <t>https://www.cdiscount.com/informatique/imprimantes-multifonction-fax/imprimante-jet-d-encre-multifonction-canon-pix/f-1071195-can1717288339881.html</t>
+  </si>
+  <si>
+    <t>Currys - IE</t>
+  </si>
+  <si>
+    <t>Buy CANON PIXMA TS3355 All-in-One Wireless Inkjet Printer | CurrysIE</t>
+  </si>
+  <si>
+    <t>https://www.currys.ie/products/canon-pixma-ts3355-allinone-wireless-inkjet-printer-10206592.html</t>
+  </si>
+  <si>
+    <t>El Corte Ingles - ES</t>
+  </si>
+  <si>
+    <t>Cartucho de tinta original Canon PG-540 (5225B004) negro · Canon · El Corte Inglés</t>
+  </si>
+  <si>
+    <t>5225B004</t>
+  </si>
+  <si>
+    <t>https://www.elcorteingles.es/electronica/A35872672-cartucho-de-tinta-original-canon-pg-540-5225b004-negro/</t>
+  </si>
+  <si>
+    <t>Objetivo Canon RF 100-400 mm F5.6-8 IS USM para Canon EOS R · Canon · El Corte Inglés</t>
+  </si>
+  <si>
+    <t>5050C005AA</t>
+  </si>
+  <si>
+    <t>https://www.elcorteingles.es/electronica/A41169915-objetivo-canon-rf-100-400-mm-f56-8-is-usm-para-canon-eos-r/</t>
+  </si>
+  <si>
+    <t>cross_language_mpn_mismatch</t>
+  </si>
+  <si>
+    <t>Objetivo Canon RF 24mm F1.8 MACRO IS STM para Canon EOS R · Canon · El Corte Inglés</t>
+  </si>
+  <si>
+    <t>5668C005</t>
+  </si>
+  <si>
+    <t>https://www.elcorteingles.es/electronica/A44754910-objetivo-canon-rf-24mm-f18-macro-is-stm-para-canon-eos-r/</t>
+  </si>
+  <si>
+    <t>Foto Erhardt GmbH - DE</t>
+  </si>
+  <si>
+    <t>Canon DR-E6 DC-Kuppler - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/zubehoer/energie/netzteile/canon-dr-e6-dc-kuppler.html</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>Canon EF 70-200mm f2,8L IS III USM - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/objektive/canon-objektive/ef-zoom/canon-ef-70-200mm-f2-8l-is-iii-usm.html</t>
+  </si>
+  <si>
+    <t>Canon Macro Ring Lite Adapter 72mm - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/zubehoer/objektivzubehoer/objektiv-adapter/canon-macro-ring-lite-adapter-72mm.html</t>
+  </si>
+  <si>
+    <t>Canon PowerShot SX740 HS schwarz Lite Edition - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/kameras/kompaktkameras/canon-powershot/canon-powershot-sx740-hs-schwarz-lite-edition.html</t>
+  </si>
+  <si>
+    <t>Canon RF 10-20mm f4 L IS STM - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/objektive/canon-objektive/rf-objektive/canon-rf-10-20mm-f4-l-is-stm.html</t>
+  </si>
+  <si>
+    <t>Canon RF 24-240mm f4-6,3 IS USM - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/objektive/canon-objektive/rf-objektive/canon-rf-24-240mm-f4-6-3-is-usm.html</t>
+  </si>
+  <si>
+    <t>Canon RF 70-200mm f2,8 L IS USM Z weiß - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/objektive/canon-objektive/rf-objektive/canon-rf-70-200mm-f2-8-l-is-usm-z-weiss.html</t>
+  </si>
+  <si>
+    <t>Canon Unterwassergehäuse WP-DC55 für PowerShot G7 X Mark II - Foto Erhardt</t>
+  </si>
+  <si>
+    <t>https://www.foto-erhardt.de/zubehoer/kamerazubehoer/unterwasser/canon-unterwassergehaeuse-wp-dc55-fuer-powershot-g7-x-mark-ii.html</t>
+  </si>
+  <si>
+    <t>Gigatron - RS</t>
+  </si>
+  <si>
+    <t>CANON CanoScan LiDE 400 Skener | Gigatron</t>
+  </si>
+  <si>
+    <t>https://gigatron.rs/standardni-skeneri/canon-canoscan-lide-400-skener-260710</t>
+  </si>
+  <si>
+    <t>rs</t>
+  </si>
+  <si>
+    <t>https://gigatron.rs/standardni_skeneri/canon_canoscan_lide_400_skener-260710</t>
+  </si>
+  <si>
+    <t>CANON PIXMA MG2551S MFP 0727C066AA Kućni štampač | Gigatron</t>
+  </si>
+  <si>
+    <t>https://gigatron.rs/multifunkcijski-%C5%A1tampa%C4%8Di/canon-pixma-mg2551s-mfp-0727c066aa-ku%C4%87ni-%C5%A1tampa%C4%8D-650310</t>
+  </si>
+  <si>
+    <t>https://gigatron.rs/multifunkcijski-stampaci/canon-pixma-mg2551s-mfp-0727c066aa-kucni-stampac-650310</t>
+  </si>
+  <si>
+    <t>https://gigatron.rs/multifunkcijski-stampaci/canon-pixma-mg2551s-mfp-0727c066aa-kucni-stampac-inkjet-kolor-crna-650310</t>
+  </si>
+  <si>
+    <t>CANON RF 24mm F1.8 MACRO IS STM Objektiv | Gigatron</t>
+  </si>
+  <si>
+    <t>https://gigatron.rs/objektivi/canon-rf-24mm-f18-macro-is-stm-objektiv-543164</t>
+  </si>
+  <si>
+    <t>Proshop - SE</t>
+  </si>
+  <si>
+    <t>Canon PG-560XL/CL-561XL / 3712C008 High Value Pack | I lager | Billig</t>
+  </si>
+  <si>
+    <t>3712C008</t>
+  </si>
+  <si>
+    <t>https://www.proshop.se/Papper-Fotopapper-Etiketter/Canon-PG-560XLCL-561XL-3712C008-High-Value-Pack/3226881</t>
+  </si>
+  <si>
+    <t>sv</t>
+  </si>
+  <si>
+    <t>Canon PIXMA TS8750 - Black Flerfunktionsskrivare | Billig</t>
+  </si>
+  <si>
+    <t>6152C006</t>
+  </si>
+  <si>
+    <t>https://www.proshop.se/Skrivare/Canon-PIXMA-TS8750-Black-Flerfunktionsskrivare/3196140</t>
+  </si>
+  <si>
+    <t>Teknosa - TR</t>
+  </si>
+  <si>
+    <t>Canon PowerShot G7 X Mark II Kompakt Fotoğraf Makinesi (İthalatçı Garantili) Fiyatı ve Özellikleri Kampanyaları &amp; Fırsatları - Teknosa</t>
+  </si>
+  <si>
+    <t>https://www.teknosa.com/canon-powershot-g7-x-mark-ii-kompakt-fotograf-makinesi-ithalatci-garantili-p-783251033</t>
+  </si>
+  <si>
+    <t>tr</t>
+  </si>
+  <si>
+    <t>Canon Zink Paper ZP-2030 50 Adet Fotoğraf Kağıdı Fiyatı ve Özellikleri Kampanyaları &amp; Fırsatları - Teknosa</t>
+  </si>
+  <si>
+    <t>https://www.teknosa.com/canon-zink-paper-zp2030-50-adet-fotograf-kagidi-p-783530009</t>
+  </si>
+  <si>
+    <t>Worten - ES</t>
+  </si>
+  <si>
+    <t>Kit de casete con Cinta de impresión y papel CANON Easy Photo Pack E-P100  para SELPHY ES1, ES2, ES20, ES3, ES30, ES40 | Worten Canarias</t>
+  </si>
+  <si>
+    <t>https://canarias.worten.es/productos/kit-de-casete-con-cinta-de-impresion-y-papel-canon-easy-photo-pack-e-p100-para-selphy-es1-es2-es20-es3-es30-es40-4139554</t>
   </si>
   <si>
     <t>Worten - PT</t>
   </si>
   <si>
-    <t>Carregador ASUS 0A001-00236400 adaptador e transformador Interior 45 W PretoASUS 0A001-00236400. | Worten.pt</t>
-  </si>
-  <si>
-    <t>https://www.worten.pt/informatica-e-acessorios/acessorios-pc/mais-acessorios-pc/carregadores-de-pc</t>
+    <t>Impressora CANON SELPHY QX20 (Fotografia - Bluetooth) | Worten.pt</t>
+  </si>
+  <si>
+    <t>ffffffff-0000-4000-a000-00003d3f3866</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/impressora-canon-selphy-qx20-fotografia-bluetooth-8172638</t>
   </si>
   <si>
     <t>pt</t>
   </si>
   <si>
-    <t>Computadores Portáteis Asus | Worten.pt</t>
-  </si>
-  <si>
-    <t>https://www.worten.pt/informatica-e-acessorios/computadores/computadores-portateis</t>
+    <t>https://www.worten.pt/produtos/impressora-canon-selphy-qx20-fotografia-bluetooth-8172660</t>
+  </si>
+  <si>
+    <t>Impressora Portátil CANON Zoemini 2 Azul-marinho (Fotografia - Bluetooth) | Worten.pt</t>
+  </si>
+  <si>
+    <t>9938ae61-9987-4a43-ad4e-58f8bbf00332</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/impressora-portatil-canon-zoemini-2-azul-marinho-fotografia-bluetooth-7656525</t>
   </si>
   <si>
     <t>live_products_dropped</t>
   </si>
   <si>
-    <t>https://www.worten.pt/informatica-e-acessorios/computadores/computadores-portateis/f/marca/ASUS</t>
-  </si>
-  <si>
-    <t>ACER</t>
-  </si>
-  <si>
-    <t>Vanden Borre - BE FR</t>
-  </si>
-  <si>
-    <t>https://www.vandenborre.be/fr/laptop-tablette-pc-ou-hybride-convertible/acer-aspire-3-a315-35-c1k2</t>
-  </si>
-  <si>
-    <t>b4</t>
-  </si>
-  <si>
-    <t>cross_language_mpn_mismatch</t>
-  </si>
-  <si>
-    <t>https://www.vandenborre.be/fr/ecran-de-projection/acer-e100-w01mw-100aa-254-cm</t>
+    <t>Máquina Fotográfica Compacta CANON SX620 HS (Preto - 20 MP -  ISO: auto a 3200 - Zoom Ótico: 2- Zoom Ótico: 5x) | Worten.pt</t>
+  </si>
+  <si>
+    <t>f068549e-5c19-4f7c-948d-d8e995b2074a</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/maquina-fotografica-compacta-canon-sx620-hs-preto-20-mp-iso-auto-a-3200-zoom-otico-2-zoom-otico-5x-5833654</t>
+  </si>
+  <si>
+    <t>Máquina Fotográfica Instantânea CANON Zoemini S2 (Branco - Li-Po 700 mAh - 51 x 76 mm) | Worten.pt</t>
+  </si>
+  <si>
+    <t>4fa1d633-efe2-4f67-9953-1523e1042817</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/maquina-fotografica-instantanea-canon-zoemini-s2-branco-li-po-700-mah-51-x-76-mm-7618565</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/maquina-fotografica-instantanea-canon-zoemini-s2-branco-li-po-700-mah-51-x-76-mm-7618565?gad_source=1&amp;gclid=CjwKCAiA-ty8BhA_EiwAkyoa3znzZtIXlhQB4s0VE69gzG99mDjTzmgbylIJvbAa6nXqJjAZAPWb2BoChgMQAvD_BwE</t>
+  </si>
+  <si>
+    <t>Pack Tinteiros CANON PG-540L + CL-541XL (5225B006) | Worten.pt</t>
+  </si>
+  <si>
+    <t>76fc785f-1d47-4aec-ae3b-557e95bd8800</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/pack-tinteiros-canon-pg-540l-cl-541xl-5225b006-7581358</t>
+  </si>
+  <si>
+    <t>Tinteiro CANON PGI-1500XL Preto (9182B001) | Worten.pt</t>
+  </si>
+  <si>
+    <t>c22b875e-2dc7-4fd2-a51c-a3907f19f6e9</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/tinteiro-canon-pgi-1500xl-preto-9182b001-5647336</t>
+  </si>
+  <si>
+    <t>Tinteiro Compatível Canon 00521Y Amarelo (Cli-521Y) | Worten.pt</t>
+  </si>
+  <si>
+    <t>c180d834-1a62-4cf6-af74-fa0247bc7865</t>
+  </si>
+  <si>
+    <t>https://www.worten.pt/produtos/tinteiro-compativel-canon-00521y-amarelo-cli-521y-mrkean-6920620045738</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,12 +388,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -261,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -273,10 +429,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -585,23 +737,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:L244"/>
+  <dimension ref="A1:M244"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.625" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="10" width="13.625" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="18.75" customHeight="1">
+    <row r="1" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -636,782 +788,1372 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>18</v>
+      </c>
+      <c r="L2"/>
+      <c r="M2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3"/>
+      <c r="M3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4">
+        <v>104</v>
+      </c>
+      <c r="K4">
+        <v>104</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5">
+        <v>10206592</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1104</v>
-      </c>
-      <c r="K2" s="5">
-        <v>1104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J5">
+        <v>48</v>
+      </c>
+      <c r="K5">
+        <v>48</v>
+      </c>
+      <c r="L5"/>
+      <c r="M5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+      <c r="L6"/>
+      <c r="M6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>44</v>
+      </c>
+      <c r="L7"/>
+      <c r="M7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>6</v>
+      </c>
+      <c r="K10">
+        <v>6</v>
+      </c>
+      <c r="L10"/>
+      <c r="M10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11">
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11"/>
+      <c r="M11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>50</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>12</v>
+      </c>
+      <c r="I12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12">
+        <v>33</v>
+      </c>
+      <c r="K12">
+        <v>33</v>
+      </c>
+      <c r="L12"/>
+      <c r="M12">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13">
+        <v>11</v>
+      </c>
+      <c r="K13">
+        <v>11</v>
+      </c>
+      <c r="L13"/>
+      <c r="M13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14">
+        <v>34</v>
+      </c>
+      <c r="K14">
+        <v>34</v>
+      </c>
+      <c r="L14"/>
+      <c r="M14">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>34</v>
+      </c>
+      <c r="L15"/>
+      <c r="M15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16">
         <v>4</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K16">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5">
-        <v>308</v>
-      </c>
-      <c r="K4" s="5">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="19.5" customHeight="1">
-      <c r="A5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="L16"/>
+      <c r="M16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" t="s">
+        <v>61</v>
+      </c>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" t="s">
+        <v>11</v>
+      </c>
+      <c r="H17" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17">
+        <v>10</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+      <c r="L17"/>
+      <c r="M17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" t="b">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>63</v>
+      </c>
+      <c r="G18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>15</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18"/>
+      <c r="M18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" t="s">
+        <v>63</v>
+      </c>
+      <c r="G19" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" t="s">
+        <v>12</v>
+      </c>
+      <c r="I19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19"/>
+      <c r="M19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C20" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" t="b">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" t="s">
+        <v>63</v>
+      </c>
+      <c r="G20" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" t="s">
+        <v>12</v>
+      </c>
+      <c r="I20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>49</v>
+      </c>
+      <c r="K20">
+        <v>49</v>
+      </c>
+      <c r="L20"/>
+      <c r="M20">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D21" t="b">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" t="s">
+        <v>63</v>
+      </c>
+      <c r="G21" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21"/>
+      <c r="M21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" t="b">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" t="s">
+        <v>63</v>
+      </c>
+      <c r="G22" t="s">
+        <v>11</v>
+      </c>
+      <c r="H22" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22"/>
+      <c r="M22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" t="s">
+        <v>74</v>
+      </c>
+      <c r="F23" t="s">
+        <v>75</v>
+      </c>
+      <c r="G23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" t="s">
+        <v>12</v>
+      </c>
+      <c r="I23" t="s">
+        <v>15</v>
+      </c>
+      <c r="J23">
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23"/>
+      <c r="M23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" t="s">
+        <v>77</v>
+      </c>
+      <c r="E24" t="s">
+        <v>78</v>
+      </c>
+      <c r="F24" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>38</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24"/>
+      <c r="M24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" t="s">
+        <v>80</v>
+      </c>
+      <c r="D25">
+        <v>783251033</v>
+      </c>
+      <c r="E25" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" t="s">
+        <v>38</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25"/>
+      <c r="M25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26">
+        <v>783530009</v>
+      </c>
+      <c r="E26" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" t="s">
+        <v>12</v>
+      </c>
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J26">
+        <v>7</v>
+      </c>
+      <c r="K26">
+        <v>7</v>
+      </c>
+      <c r="L26"/>
+      <c r="M26">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>17</v>
+      </c>
+      <c r="B27" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27">
+        <v>4139554</v>
+      </c>
+      <c r="E27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" t="s">
+        <v>12</v>
+      </c>
+      <c r="I27" t="s">
+        <v>15</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27"/>
+      <c r="M27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" t="s">
+        <v>91</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+      <c r="G28" t="s">
+        <v>11</v>
+      </c>
+      <c r="H28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I28" t="s">
+        <v>15</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28"/>
+      <c r="M28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>93</v>
+      </c>
+      <c r="F29" t="s">
+        <v>92</v>
+      </c>
+      <c r="G29" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" t="s">
+        <v>12</v>
+      </c>
+      <c r="I29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J29">
+        <v>4</v>
+      </c>
+      <c r="K29">
+        <v>4</v>
+      </c>
+      <c r="L29"/>
+      <c r="M29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" t="s">
+        <v>96</v>
+      </c>
+      <c r="F30" t="s">
+        <v>92</v>
+      </c>
+      <c r="G30" t="s">
+        <v>11</v>
+      </c>
+      <c r="H30" t="s">
+        <v>12</v>
+      </c>
+      <c r="I30" t="s">
+        <v>97</v>
+      </c>
+      <c r="J30">
+        <v>39</v>
+      </c>
+      <c r="K30">
+        <v>39</v>
+      </c>
+      <c r="L30"/>
+      <c r="M30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>17</v>
+      </c>
+      <c r="B31" t="s">
+        <v>88</v>
+      </c>
+      <c r="C31" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" t="s">
+        <v>99</v>
+      </c>
+      <c r="E31" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" t="s">
+        <v>11</v>
+      </c>
+      <c r="H31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J31">
+        <v>44</v>
+      </c>
+      <c r="K31">
+        <v>44</v>
+      </c>
+      <c r="L31"/>
+      <c r="M31">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C32" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" t="s">
+        <v>12</v>
+      </c>
+      <c r="I32" t="s">
+        <v>97</v>
+      </c>
+      <c r="J32">
+        <v>40</v>
+      </c>
+      <c r="K32">
+        <v>40</v>
+      </c>
+      <c r="L32"/>
+      <c r="M32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C33" t="s">
+        <v>101</v>
+      </c>
+      <c r="D33" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+      <c r="F33" t="s">
+        <v>92</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>97</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33">
+        <v>1</v>
+      </c>
+      <c r="L33"/>
+      <c r="M33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>17</v>
+      </c>
+      <c r="B34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" t="s">
+        <v>105</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" t="s">
+        <v>12</v>
+      </c>
+      <c r="I34" t="s">
+        <v>15</v>
+      </c>
+      <c r="J34">
         <v>26</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J5" s="5">
-        <v>6</v>
-      </c>
-      <c r="K5" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="5">
-        <v>4</v>
-      </c>
-      <c r="K6" s="5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J7" s="5">
+      <c r="K34">
+        <v>26</v>
+      </c>
+      <c r="L34"/>
+      <c r="M34">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>88</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35">
         <v>2</v>
       </c>
-      <c r="K7" s="5">
+      <c r="K35">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A8" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="5">
+      <c r="L35"/>
+      <c r="M35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
+      </c>
+      <c r="E36" t="s">
+        <v>113</v>
+      </c>
+      <c r="F36" t="s">
+        <v>92</v>
+      </c>
+      <c r="G36" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" t="s">
+        <v>12</v>
+      </c>
+      <c r="I36" t="s">
+        <v>15</v>
+      </c>
+      <c r="J36">
         <v>1</v>
       </c>
-      <c r="K8" s="5">
+      <c r="K36">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="5">
-        <v>5</v>
-      </c>
-      <c r="K9" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A10" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="L36"/>
+      <c r="M36">
         <v>1</v>
       </c>
-      <c r="K10" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A11" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A12" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" s="5">
-        <v>0</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="J12" s="5">
-        <v>7</v>
-      </c>
-      <c r="K12" s="5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D13" s="5">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J13" s="5">
-        <v>8</v>
-      </c>
-      <c r="K13" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J14" s="5">
-        <v>3</v>
-      </c>
-      <c r="K14" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A15" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J15" s="5">
-        <v>8</v>
-      </c>
-      <c r="K15" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A16" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="J16" s="5">
-        <v>3</v>
-      </c>
-      <c r="K16" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A17" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J17" s="5">
-        <v>21648</v>
-      </c>
-      <c r="K17" s="5">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A18" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J18" s="5">
-        <v>275</v>
-      </c>
-      <c r="K18" s="5">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="3"/>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="3"/>
-    </row>
-    <row r="21" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="3"/>
-    </row>
-    <row r="28" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="3"/>
-    </row>
-    <row r="29" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="3"/>
-    </row>
-    <row r="30" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="3"/>
-    </row>
-    <row r="31" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="3"/>
-    </row>
-    <row r="32" spans="1:11" ht="18.75" customHeight="1">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="3"/>
-    </row>
-    <row r="33" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="3"/>
-    </row>
-    <row r="34" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="3"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="3"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="3"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="3"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75" customHeight="1">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="3"/>
-    </row>
-    <row r="37" spans="1:8" ht="18.75" customHeight="1">
+    </row>
+    <row r="37" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1421,7 +2163,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" ht="18.75" customHeight="1">
+    <row r="38" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1431,7 +2173,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" ht="18.75" customHeight="1">
+    <row r="39" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1441,7 +2183,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" ht="18.75" customHeight="1">
+    <row r="40" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1451,7 +2193,7 @@
       <c r="G40" s="2"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" ht="18.75" customHeight="1">
+    <row r="41" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1461,7 +2203,7 @@
       <c r="G41" s="2"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" ht="18.75" customHeight="1">
+    <row r="42" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1471,7 +2213,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" ht="18.75" customHeight="1">
+    <row r="43" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1481,7 +2223,7 @@
       <c r="G43" s="2"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" ht="18.75" customHeight="1">
+    <row r="44" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1491,7 +2233,7 @@
       <c r="G44" s="2"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" ht="18.75" customHeight="1">
+    <row r="45" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1501,7 +2243,7 @@
       <c r="G45" s="2"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" ht="18.75" customHeight="1">
+    <row r="46" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1511,7 +2253,7 @@
       <c r="G46" s="2"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" ht="18.75" customHeight="1">
+    <row r="47" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1521,7 +2263,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" ht="18.75" customHeight="1">
+    <row r="48" spans="1:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1531,7 +2273,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" ht="18.75" customHeight="1">
+    <row r="49" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1541,7 +2283,7 @@
       <c r="G49" s="2"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" ht="18.75" customHeight="1">
+    <row r="50" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1551,7 +2293,7 @@
       <c r="G50" s="2"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" ht="18.75" customHeight="1">
+    <row r="51" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1561,7 +2303,7 @@
       <c r="G51" s="2"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" ht="18.75" customHeight="1">
+    <row r="52" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -1571,7 +2313,7 @@
       <c r="G52" s="2"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" ht="18.75" customHeight="1">
+    <row r="53" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -1581,7 +2323,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" ht="18.75" customHeight="1">
+    <row r="54" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -1591,7 +2333,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" ht="18.75" customHeight="1">
+    <row r="55" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -1601,7 +2343,7 @@
       <c r="G55" s="2"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" ht="18.75" customHeight="1">
+    <row r="56" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -1611,7 +2353,7 @@
       <c r="G56" s="2"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" ht="18.75" customHeight="1">
+    <row r="57" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -1621,7 +2363,7 @@
       <c r="G57" s="2"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" ht="18.75" customHeight="1">
+    <row r="58" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -1631,7 +2373,7 @@
       <c r="G58" s="2"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" ht="18.75" customHeight="1">
+    <row r="59" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -1641,7 +2383,7 @@
       <c r="G59" s="2"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" ht="18.75" customHeight="1">
+    <row r="60" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -1651,7 +2393,7 @@
       <c r="G60" s="2"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" ht="18.75" customHeight="1">
+    <row r="61" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -1661,7 +2403,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" ht="18.75" customHeight="1">
+    <row r="62" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -1671,7 +2413,7 @@
       <c r="G62" s="2"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" ht="18.75" customHeight="1">
+    <row r="63" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -1681,7 +2423,7 @@
       <c r="G63" s="2"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" ht="18.75" customHeight="1">
+    <row r="64" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -1691,7 +2433,7 @@
       <c r="G64" s="2"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" ht="18.75" customHeight="1">
+    <row r="65" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -1701,7 +2443,7 @@
       <c r="G65" s="2"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" ht="18.75" customHeight="1">
+    <row r="66" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -1711,7 +2453,7 @@
       <c r="G66" s="2"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" ht="18.75" customHeight="1">
+    <row r="67" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -1721,7 +2463,7 @@
       <c r="G67" s="2"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" ht="18.75" customHeight="1">
+    <row r="68" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -1731,7 +2473,7 @@
       <c r="G68" s="2"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" ht="18.75" customHeight="1">
+    <row r="69" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -1741,7 +2483,7 @@
       <c r="G69" s="2"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" ht="18.75" customHeight="1">
+    <row r="70" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -1751,7 +2493,7 @@
       <c r="G70" s="2"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" ht="18.75" customHeight="1">
+    <row r="71" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -1761,7 +2503,7 @@
       <c r="G71" s="2"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" ht="18.75" customHeight="1">
+    <row r="72" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -1771,7 +2513,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" ht="18.75" customHeight="1">
+    <row r="73" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -1781,7 +2523,7 @@
       <c r="G73" s="2"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" ht="18.75" customHeight="1">
+    <row r="74" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -1791,7 +2533,7 @@
       <c r="G74" s="2"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" ht="18.75" customHeight="1">
+    <row r="75" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -1801,7 +2543,7 @@
       <c r="G75" s="2"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" ht="18.75" customHeight="1">
+    <row r="76" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -1811,7 +2553,7 @@
       <c r="G76" s="2"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" ht="18.75" customHeight="1">
+    <row r="77" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -1821,7 +2563,7 @@
       <c r="G77" s="2"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" ht="18.75" customHeight="1">
+    <row r="78" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -1831,7 +2573,7 @@
       <c r="G78" s="2"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" ht="18.75" customHeight="1">
+    <row r="79" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -1841,7 +2583,7 @@
       <c r="G79" s="2"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" ht="18.75" customHeight="1">
+    <row r="80" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -1851,7 +2593,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" ht="18.75" customHeight="1">
+    <row r="81" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -1861,7 +2603,7 @@
       <c r="G81" s="2"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" ht="18.75" customHeight="1">
+    <row r="82" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -1871,7 +2613,7 @@
       <c r="G82" s="2"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" ht="18.75" customHeight="1">
+    <row r="83" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -1881,7 +2623,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" ht="18.75" customHeight="1">
+    <row r="84" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -1891,7 +2633,7 @@
       <c r="G84" s="2"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" ht="18.75" customHeight="1">
+    <row r="85" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -1901,7 +2643,7 @@
       <c r="G85" s="2"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" ht="18.75" customHeight="1">
+    <row r="86" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -1911,7 +2653,7 @@
       <c r="G86" s="2"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" ht="18.75" customHeight="1">
+    <row r="87" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -1921,7 +2663,7 @@
       <c r="G87" s="2"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" ht="18.75" customHeight="1">
+    <row r="88" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -1931,7 +2673,7 @@
       <c r="G88" s="2"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" ht="18.75" customHeight="1">
+    <row r="89" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -1941,7 +2683,7 @@
       <c r="G89" s="2"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" ht="18.75" customHeight="1">
+    <row r="90" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -1951,7 +2693,7 @@
       <c r="G90" s="2"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" ht="18.75" customHeight="1">
+    <row r="91" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -1961,7 +2703,7 @@
       <c r="G91" s="2"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" ht="18.75" customHeight="1">
+    <row r="92" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -1971,7 +2713,7 @@
       <c r="G92" s="2"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" ht="18.75" customHeight="1">
+    <row r="93" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -1981,7 +2723,7 @@
       <c r="G93" s="2"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" ht="18.75" customHeight="1">
+    <row r="94" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -1991,7 +2733,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" ht="18.75" customHeight="1">
+    <row r="95" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -2001,7 +2743,7 @@
       <c r="G95" s="2"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" ht="18.75" customHeight="1">
+    <row r="96" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -2011,7 +2753,7 @@
       <c r="G96" s="2"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" ht="18.75" customHeight="1">
+    <row r="97" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -2021,7 +2763,7 @@
       <c r="G97" s="2"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" ht="18.75" customHeight="1">
+    <row r="98" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -2031,7 +2773,7 @@
       <c r="G98" s="2"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" ht="18.75" customHeight="1">
+    <row r="99" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -2041,7 +2783,7 @@
       <c r="G99" s="2"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" ht="18.75" customHeight="1">
+    <row r="100" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -2051,7 +2793,7 @@
       <c r="G100" s="2"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" ht="18.75" customHeight="1">
+    <row r="101" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -2061,7 +2803,7 @@
       <c r="G101" s="2"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" ht="18.75" customHeight="1">
+    <row r="102" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -2071,7 +2813,7 @@
       <c r="G102" s="2"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" ht="18.75" customHeight="1">
+    <row r="103" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -2081,7 +2823,7 @@
       <c r="G103" s="2"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" ht="18.75" customHeight="1">
+    <row r="104" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -2091,7 +2833,7 @@
       <c r="G104" s="2"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" ht="18.75" customHeight="1">
+    <row r="105" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -2101,7 +2843,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" ht="18.75" customHeight="1">
+    <row r="106" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -2111,7 +2853,7 @@
       <c r="G106" s="2"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" ht="18.75" customHeight="1">
+    <row r="107" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -2121,7 +2863,7 @@
       <c r="G107" s="2"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" ht="18.75" customHeight="1">
+    <row r="108" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -2131,7 +2873,7 @@
       <c r="G108" s="2"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" ht="18.75" customHeight="1">
+    <row r="109" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -2141,7 +2883,7 @@
       <c r="G109" s="2"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" ht="18.75" customHeight="1">
+    <row r="110" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -2151,7 +2893,7 @@
       <c r="G110" s="2"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" ht="18.75" customHeight="1">
+    <row r="111" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -2161,7 +2903,7 @@
       <c r="G111" s="2"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" ht="18.75" customHeight="1">
+    <row r="112" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -2171,7 +2913,7 @@
       <c r="G112" s="2"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" ht="18.75" customHeight="1">
+    <row r="113" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -2181,7 +2923,7 @@
       <c r="G113" s="2"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" ht="18.75" customHeight="1">
+    <row r="114" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -2191,7 +2933,7 @@
       <c r="G114" s="2"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" ht="18.75" customHeight="1">
+    <row r="115" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -2201,7 +2943,7 @@
       <c r="G115" s="2"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" ht="18.75" customHeight="1">
+    <row r="116" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -2211,7 +2953,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" ht="18.75" customHeight="1">
+    <row r="117" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -2221,7 +2963,7 @@
       <c r="G117" s="2"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" ht="18.75" customHeight="1">
+    <row r="118" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -2231,7 +2973,7 @@
       <c r="G118" s="2"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" ht="18.75" customHeight="1">
+    <row r="119" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -2241,7 +2983,7 @@
       <c r="G119" s="2"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" ht="18.75" customHeight="1">
+    <row r="120" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -2251,7 +2993,7 @@
       <c r="G120" s="2"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" ht="18.75" customHeight="1">
+    <row r="121" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -2261,7 +3003,7 @@
       <c r="G121" s="2"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" ht="18.75" customHeight="1">
+    <row r="122" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -2271,7 +3013,7 @@
       <c r="G122" s="2"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" ht="18.75" customHeight="1">
+    <row r="123" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -2281,7 +3023,7 @@
       <c r="G123" s="2"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" ht="18.75" customHeight="1">
+    <row r="124" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -2291,7 +3033,7 @@
       <c r="G124" s="2"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" ht="18.75" customHeight="1">
+    <row r="125" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -2301,7 +3043,7 @@
       <c r="G125" s="2"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" ht="18.75" customHeight="1">
+    <row r="126" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -2311,7 +3053,7 @@
       <c r="G126" s="2"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" ht="18.75" customHeight="1">
+    <row r="127" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -2321,7 +3063,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" ht="18.75" customHeight="1">
+    <row r="128" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -2331,7 +3073,7 @@
       <c r="G128" s="2"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" ht="18.75" customHeight="1">
+    <row r="129" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -2341,7 +3083,7 @@
       <c r="G129" s="2"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" ht="18.75" customHeight="1">
+    <row r="130" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -2351,7 +3093,7 @@
       <c r="G130" s="2"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" ht="18.75" customHeight="1">
+    <row r="131" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -2361,7 +3103,7 @@
       <c r="G131" s="2"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" ht="18.75" customHeight="1">
+    <row r="132" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -2371,7 +3113,7 @@
       <c r="G132" s="2"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" ht="18.75" customHeight="1">
+    <row r="133" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -2381,7 +3123,7 @@
       <c r="G133" s="2"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" ht="18.75" customHeight="1">
+    <row r="134" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -2391,7 +3133,7 @@
       <c r="G134" s="2"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" ht="18.75" customHeight="1">
+    <row r="135" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -2401,7 +3143,7 @@
       <c r="G135" s="2"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" ht="18.75" customHeight="1">
+    <row r="136" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -2411,7 +3153,7 @@
       <c r="G136" s="2"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" ht="18.75" customHeight="1">
+    <row r="137" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -2421,119 +3163,114 @@
       <c r="G137" s="2"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="139" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="140" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="141" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="142" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="143" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="144" spans="1:8" ht="18.75" customHeight="1"/>
-    <row r="145" ht="18.75" customHeight="1"/>
-    <row r="146" ht="18.75" customHeight="1"/>
-    <row r="147" ht="18.75" customHeight="1"/>
-    <row r="148" ht="18.75" customHeight="1"/>
-    <row r="149" ht="18.75" customHeight="1"/>
-    <row r="150" ht="18.75" customHeight="1"/>
-    <row r="151" ht="18.75" customHeight="1"/>
-    <row r="152" ht="18.75" customHeight="1"/>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1"/>
-    <row r="158" ht="18.75" customHeight="1"/>
-    <row r="159" ht="18.75" customHeight="1"/>
-    <row r="160" ht="18.75" customHeight="1"/>
-    <row r="161" ht="18.75" customHeight="1"/>
-    <row r="162" ht="18.75" customHeight="1"/>
-    <row r="163" ht="18.75" customHeight="1"/>
-    <row r="164" ht="18.75" customHeight="1"/>
-    <row r="165" ht="18.75" customHeight="1"/>
-    <row r="166" ht="18.75" customHeight="1"/>
-    <row r="167" ht="18.75" customHeight="1"/>
-    <row r="168" ht="18.75" customHeight="1"/>
-    <row r="169" ht="18.75" customHeight="1"/>
-    <row r="170" ht="18.75" customHeight="1"/>
-    <row r="171" ht="18.75" customHeight="1"/>
-    <row r="172" ht="18.75" customHeight="1"/>
-    <row r="173" ht="18.75" customHeight="1"/>
-    <row r="174" ht="18.75" customHeight="1"/>
-    <row r="175" ht="18.75" customHeight="1"/>
-    <row r="176" ht="18.75" customHeight="1"/>
-    <row r="177" ht="18.75" customHeight="1"/>
-    <row r="178" ht="18.75" customHeight="1"/>
-    <row r="179" ht="18.75" customHeight="1"/>
-    <row r="180" ht="18.75" customHeight="1"/>
-    <row r="181" ht="18.75" customHeight="1"/>
-    <row r="182" ht="18.75" customHeight="1"/>
-    <row r="183" ht="18.75" customHeight="1"/>
-    <row r="184" ht="18.75" customHeight="1"/>
-    <row r="185" ht="18.75" customHeight="1"/>
-    <row r="186" ht="18.75" customHeight="1"/>
-    <row r="187" ht="18.75" customHeight="1"/>
-    <row r="188" ht="18.75" customHeight="1"/>
-    <row r="189" ht="18.75" customHeight="1"/>
-    <row r="190" ht="18.75" customHeight="1"/>
-    <row r="191" ht="18.75" customHeight="1"/>
-    <row r="192" ht="18.75" customHeight="1"/>
-    <row r="193" ht="18.75" customHeight="1"/>
-    <row r="194" ht="18.75" customHeight="1"/>
-    <row r="195" ht="18.75" customHeight="1"/>
-    <row r="196" ht="18.75" customHeight="1"/>
-    <row r="197" ht="18.75" customHeight="1"/>
-    <row r="198" ht="18.75" customHeight="1"/>
-    <row r="199" ht="18.75" customHeight="1"/>
-    <row r="200" ht="18.75" customHeight="1"/>
-    <row r="201" ht="18.75" customHeight="1"/>
-    <row r="202" ht="18.75" customHeight="1"/>
-    <row r="203" ht="18.75" customHeight="1"/>
-    <row r="204" ht="18.75" customHeight="1"/>
-    <row r="205" ht="18.75" customHeight="1"/>
-    <row r="206" ht="18.75" customHeight="1"/>
-    <row r="207" ht="18.75" customHeight="1"/>
-    <row r="208" ht="18.75" customHeight="1"/>
-    <row r="209" ht="18.75" customHeight="1"/>
-    <row r="210" ht="18.75" customHeight="1"/>
-    <row r="211" ht="18.75" customHeight="1"/>
-    <row r="212" ht="18.75" customHeight="1"/>
-    <row r="213" ht="18.75" customHeight="1"/>
-    <row r="214" ht="18.75" customHeight="1"/>
-    <row r="215" ht="18.75" customHeight="1"/>
-    <row r="216" ht="18.75" customHeight="1"/>
-    <row r="217" ht="18.75" customHeight="1"/>
-    <row r="218" ht="18.75" customHeight="1"/>
-    <row r="219" ht="18.75" customHeight="1"/>
-    <row r="220" ht="18.75" customHeight="1"/>
-    <row r="221" ht="18.75" customHeight="1"/>
-    <row r="222" ht="18.75" customHeight="1"/>
-    <row r="223" ht="18.75" customHeight="1"/>
-    <row r="224" ht="18.75" customHeight="1"/>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
-    <row r="227" ht="18.75" customHeight="1"/>
-    <row r="228" ht="18.75" customHeight="1"/>
-    <row r="229" ht="18.75" customHeight="1"/>
-    <row r="230" ht="18.75" customHeight="1"/>
-    <row r="231" ht="18.75" customHeight="1"/>
-    <row r="232" ht="18.75" customHeight="1"/>
-    <row r="233" ht="18.75" customHeight="1"/>
-    <row r="234" ht="18.75" customHeight="1"/>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
-    <row r="237" ht="18.75" customHeight="1"/>
-    <row r="238" ht="18.75" customHeight="1"/>
-    <row r="239" ht="18.75" customHeight="1"/>
-    <row r="240" ht="18.75" customHeight="1"/>
-    <row r="241" ht="18.75" customHeight="1"/>
-    <row r="242" ht="18.75" customHeight="1"/>
-    <row r="243" ht="18.75" customHeight="1"/>
-    <row r="244" ht="18.75" customHeight="1"/>
+    <row r="138" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="139" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="140" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="141" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="142" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="143" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="144" spans="1:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="145" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="146" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="147" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="148" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="149" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="150" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="151" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="152" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="153" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="154" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="155" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="156" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="157" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="158" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="159" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="160" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="161" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="162" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="163" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="164" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="165" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="166" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="167" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="168" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="169" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="170" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="171" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="172" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="173" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="174" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="175" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="176" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="177" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="178" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="179" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="180" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="181" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="182" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="183" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="184" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="185" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="186" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="187" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="188" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="189" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="190" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="191" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="192" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="193" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="194" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="195" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="196" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="197" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="198" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="199" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="200" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="201" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="202" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="203" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="204" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="205" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="206" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="207" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="208" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="209" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="210" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="211" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="212" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="213" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="214" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="215" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="216" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="217" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="218" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="219" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="220" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="221" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="222" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="223" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="224" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="225" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="226" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="227" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="228" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="229" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="230" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="231" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="232" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="233" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="234" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="235" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="236" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="237" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="238" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="239" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="240" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="241" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="242" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="243" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="244" ht="18.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E15" r:id="rId1" xr:uid="{534BCEF8-A07A-485E-AAAB-99C1A1E5E759}"/>
-    <hyperlink ref="E12" r:id="rId2" xr:uid="{2CD6FE87-F54A-4531-9C5C-9E802F2E5CB7}"/>
-    <hyperlink ref="E17" r:id="rId3" xr:uid="{B923B750-FDC7-4BDF-9099-A7B052C0C551}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2547,44 +3284,44 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="13.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+    <row r="1" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1">
+    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
     </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1">
+    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
     </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1">
+    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1">
+    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1">
+    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
